--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,10 +73,13 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
@@ -88,37 +91,34 @@
     <t>thank</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
@@ -130,9 +130,6 @@
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -142,15 +139,15 @@
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -160,16 +157,13 @@
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -539,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -682,13 +676,13 @@
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.726027397260274</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3720930232558139</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C6">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.36</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8536585365853658</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3557046979865772</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3227513227513227</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.828125</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2063492063492063</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1313672922252011</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1052,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1110,13 +1104,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7547169811320755</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1156,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1188,13 +1182,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7125</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1206,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1214,13 +1208,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1240,13 +1234,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6914893617021277</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L19">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1266,13 +1260,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1292,13 +1286,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1318,13 +1312,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6344647519582245</v>
+        <v>0.6057441253263708</v>
       </c>
       <c r="L22">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M22">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1336,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1344,13 +1338,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6279069767441861</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1370,13 +1364,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5823529411764706</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L24">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1396,13 +1390,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5730337078651685</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1422,13 +1416,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5491525423728814</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1448,13 +1442,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4811715481171548</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M27">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1474,13 +1468,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4383561643835616</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1500,13 +1494,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4307692307692308</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1526,13 +1520,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4230769230769231</v>
+        <v>0.40625</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1552,13 +1546,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.390625</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1578,13 +1572,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.131578947368421</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1604,13 +1598,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1096196868008949</v>
+        <v>0.1062639821029083</v>
       </c>
       <c r="L33">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M33">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1630,25 +1624,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.1081730769230769</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>371</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1656,25 +1650,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.08</v>
+        <v>0.03810623556581986</v>
       </c>
       <c r="L35">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1682,25 +1676,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04006163328197226</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>623</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1708,25 +1702,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03810623556581986</v>
+        <v>0.02032913843175218</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>833</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1734,77 +1728,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03370786516853932</v>
+        <v>0.009398496240601503</v>
       </c>
       <c r="L38">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="N38">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="O38">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39">
-        <v>0.01547388781431335</v>
-      </c>
-      <c r="L39">
-        <v>48</v>
-      </c>
-      <c r="M39">
-        <v>53</v>
-      </c>
-      <c r="N39">
-        <v>0.91</v>
-      </c>
-      <c r="O39">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40">
-        <v>0.008469259723964869</v>
-      </c>
-      <c r="L40">
-        <v>27</v>
-      </c>
-      <c r="M40">
-        <v>40</v>
-      </c>
-      <c r="N40">
-        <v>0.68</v>
-      </c>
-      <c r="O40">
-        <v>0.32</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3161</v>
+        <v>3162</v>
       </c>
     </row>
   </sheetData>
